--- a/PastProjectAnalysis.xlsx
+++ b/PastProjectAnalysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taniy\Desktop\Spring18\6301.502\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old proejcts analysis" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="143">
   <si>
     <t>Semester</t>
   </si>
@@ -367,13 +367,107 @@
   </si>
   <si>
     <t xml:space="preserve">Mininet, controller Ryu, pfSense firewall </t>
+  </si>
+  <si>
+    <t>https://www.parrotsec.org/</t>
+  </si>
+  <si>
+    <t>Parrot Security OS for Security Testing</t>
+  </si>
+  <si>
+    <t>https://metasploit.help.rapid7.com/docs/metasploitable-2-exploitability-guide</t>
+  </si>
+  <si>
+    <t>Metasploitable 2 - For generating attacks</t>
+  </si>
+  <si>
+    <t>Snort IDS</t>
+  </si>
+  <si>
+    <t>https://www.snort.org/</t>
+  </si>
+  <si>
+    <t>Datasets for ML for various types of attacks</t>
+  </si>
+  <si>
+    <t>http://www.unb.ca/cic/datasets/index.html</t>
+  </si>
+  <si>
+    <t>NSL-KDD Dataset used in above paper</t>
+  </si>
+  <si>
+    <t>http://www.unb.ca/cic/datasets/nsl.html</t>
+  </si>
+  <si>
+    <t>Most recent dataset</t>
+  </si>
+  <si>
+    <t>http://www.unb.ca/cic/datasets/ids-2017.html</t>
+  </si>
+  <si>
+    <t>Intrusion Detection dataset</t>
+  </si>
+  <si>
+    <t>http://www.unb.ca/cic/datasets/ids.html</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Adaboost</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>Self-Organizing Maps</t>
+  </si>
+  <si>
+    <t>Stephen Thoughts</t>
+  </si>
+  <si>
+    <t>Too generic.  The functionalities listed cover most of the range of all the previous projects combined.
+1) Test all controllers
+2) IDS/Firewall
+3) QoS/Bandwidth Management
+One or two of those may be difficult.  Doing all 3 in a few months may not be viable.</t>
+  </si>
+  <si>
+    <t>ML portion can be a "stretch goal" - if we are able to achieve the other parts of our project, then we can work on this.
+From ML-perspective, I was able to find datasets for IDS and other security-related issues.  I also found the tools we can use to generate the security issues we want to watch for.
+QoS and bandwidth are harder for ML, because I couldn't easily find datasets for those.  We would also probably have to generate our own traffic (Skype, etc?).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think doing both IDS and QoS may be too large of a project.  </t>
+  </si>
+  <si>
+    <t>To implement and compare various open source controllers available. We will set up networks using each controller (Ryu, Open Daylight, ONOS, POX, Floodlight) and test firewall and intrusion detection on each controller. We plan to use pfSense as our firewall, Snort as an IDS, and various tools to generate intrusions and attacks.
+As a stretch-goal (i.e. able to complete everything mentioned above), we will use Machine Learning to design an application that is able to detect intrusions and detect unwanted traffic on the network.</t>
+  </si>
+  <si>
+    <t>Mininet, controllers (Ryu, Open Daylight, ONOS, POX, Floodlight), pfSense (firewall), Snort (IDS)</t>
+  </si>
+  <si>
+    <t>Tools Used from Paper: "ML-Based IDS for SDN"</t>
+  </si>
+  <si>
+    <t>ML Techniques Used in papers</t>
+  </si>
+  <si>
+    <t>&lt;---- Stephen's Proposal based on the above proposals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,8 +491,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,8 +520,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -441,26 +556,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,7 +762,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -803,21 +1074,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -848,7 +1119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -865,7 +1136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -879,7 +1150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -896,7 +1167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -907,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -921,7 +1192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -935,7 +1206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -952,7 +1223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -969,7 +1240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -980,7 +1251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -999,7 +1270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1013,7 +1284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1027,7 +1298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1038,7 +1309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1065,7 +1336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1076,7 +1347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1092,7 +1363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1100,7 +1371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1119,7 +1390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1401,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1138,7 +1409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1146,7 +1417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1154,7 +1425,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1162,7 +1433,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1173,7 +1444,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1181,7 +1452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1192,7 +1463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -1200,7 +1471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1211,7 +1482,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1222,7 +1493,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1233,7 +1504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1241,7 +1512,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1249,7 +1520,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1260,7 +1531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1268,7 +1539,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1276,7 +1547,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1284,7 +1555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -1292,7 +1563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -1300,7 +1571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -1308,7 +1579,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -1316,7 +1587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -1330,7 +1601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -1344,7 +1615,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -1358,7 +1629,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -1372,7 +1643,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -1386,7 +1657,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -1400,7 +1671,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -1414,7 +1685,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -1428,7 +1699,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -1442,7 +1713,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -1456,7 +1727,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -1470,7 +1741,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -1486,75 +1757,229 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1"/>
-    <hyperlink ref="E50" r:id="rId2"/>
-    <hyperlink ref="E49" r:id="rId3"/>
-    <hyperlink ref="E51" r:id="rId4"/>
-    <hyperlink ref="E52" r:id="rId5"/>
-    <hyperlink ref="E53" r:id="rId6"/>
-    <hyperlink ref="E54" r:id="rId7"/>
-    <hyperlink ref="E55" r:id="rId8"/>
-    <hyperlink ref="E56" r:id="rId9"/>
-    <hyperlink ref="E57" r:id="rId10"/>
-    <hyperlink ref="E58" r:id="rId11"/>
-    <hyperlink ref="E59" r:id="rId12"/>
-    <hyperlink ref="E60" r:id="rId13"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E50" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E49" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E51" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E52" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E53" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E54" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E56" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E57" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E58" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E59" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E60" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="137.109375" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="137.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B22:C25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{8AFC4C8B-DA41-4A1D-91CE-499C29E07138}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{B5CCF6B4-AF4C-4288-83C8-33DCD5487DD0}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{AE25DA5F-3930-455A-BFFB-B6DC3E5A575F}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{39D0E9E8-C8AF-4438-BC00-780BDF961918}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{8C2673AD-77B6-453C-BF9C-79A652E45259}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{D8CE5E34-F4D5-4F40-B204-AA2B0089F424}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{9E7FD5B1-9ABE-4399-AC34-1A881961E81B}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{AA125322-5BE9-4742-9D20-2688E65856DE}"/>
+    <hyperlink ref="B22" r:id="rId9" xr:uid="{E079DD83-D43E-4C4F-BFCA-77BB2A7D1D72}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{7E4F614C-6BA3-432D-B690-66D3C38BD8E8}"/>
+    <hyperlink ref="B27" r:id="rId11" xr:uid="{B195646D-4C90-4827-AEE7-892A26E6B67B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/PastProjectAnalysis.xlsx
+++ b/PastProjectAnalysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="4080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old proejcts analysis" sheetId="1" r:id="rId1"/>
     <sheet name="proposals" sheetId="2" r:id="rId2"/>
+    <sheet name="Timeline" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="154">
   <si>
     <t>Semester</t>
   </si>
@@ -461,6 +462,39 @@
   </si>
   <si>
     <t>&lt;---- Stephen's Proposal based on the above proposals</t>
+  </si>
+  <si>
+    <t>ONOS working</t>
+  </si>
+  <si>
+    <t>MiniNet working</t>
+  </si>
+  <si>
+    <t>Training Algorithm</t>
+  </si>
+  <si>
+    <t>Connection between training alg and controller</t>
+  </si>
+  <si>
+    <t>pfSense/Snort/Pyretic talking to Controller</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>test pfSense or Snort or Pyretic</t>
+  </si>
+  <si>
+    <t>Read ONOS Documentation</t>
   </si>
 </sst>
 </file>
@@ -678,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -706,32 +740,34 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1081,14 +1117,14 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1119,7 +1155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1240,7 +1276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1251,7 +1287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1259,7 +1295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1284,7 +1320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1298,7 +1334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1309,7 +1345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1328,7 +1364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1336,7 +1372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1347,7 +1383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1355,7 +1391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1371,7 +1407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1382,7 +1418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1390,7 +1426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1401,7 +1437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1409,7 +1445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1417,7 +1453,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1425,7 +1461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1433,7 +1469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1444,7 +1480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1452,7 +1488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1463,7 +1499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -1471,7 +1507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1482,7 +1518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1493,7 +1529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1504,7 +1540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1512,7 +1548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1520,7 +1556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1531,7 +1567,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1539,7 +1575,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1547,7 +1583,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1555,7 +1591,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -1563,7 +1599,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -1571,7 +1607,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -1579,7 +1615,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -1587,7 +1623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -1601,7 +1637,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -1615,7 +1651,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -1629,7 +1665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -1643,7 +1679,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -1657,7 +1693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -1671,7 +1707,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -1685,7 +1721,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -1699,7 +1735,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -1713,7 +1749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -1727,7 +1763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -1741,7 +1777,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -1779,16 +1815,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="137.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="137.1796875" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" customWidth="1"/>
+    <col min="3" max="3" width="74.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>110</v>
       </c>
@@ -1799,7 +1837,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
@@ -1811,7 +1849,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -1822,7 +1860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>109</v>
       </c>
@@ -1831,7 +1869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>138</v>
       </c>
@@ -1842,7 +1880,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>140</v>
       </c>
@@ -1850,7 +1888,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1858,7 +1896,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -1866,7 +1904,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -1874,7 +1912,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -1882,7 +1920,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -1890,7 +1928,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -1898,7 +1936,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -1906,61 +1944,61 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="26"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1982,4 +2020,120 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CEBED8-E81C-4E9D-A1B2-BBD6AF09BA27}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="27">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="27">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A8" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="27">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="27">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="27">
+        <v>43145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{0DE0D12A-641F-4AA5-BA9B-1A76AB99311B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>